--- a/src/07_R/inData/Koweps/Koweps_Codebook.xlsx
+++ b/src/07_R/inData/Koweps/Koweps_Codebook.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gon\TJS_BigData\src\07_R\inData\Koweps\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975"/>
   </bookViews>
   <sheets>
-    <sheet name="조사 설계서" sheetId="1" r:id="rId1"/>
-    <sheet name="직종 코드" sheetId="5" r:id="rId2"/>
+    <sheet name="직종 코드" sheetId="5" r:id="rId1"/>
+    <sheet name="조사 설계서" sheetId="1" r:id="rId2"/>
     <sheet name="가구주와의 관계 코드" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -746,7 +751,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="000"/>
     <numFmt numFmtId="177" formatCode="0000"/>
@@ -1134,7 +1139,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1142,9 +1147,1228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B150"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="42.625" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>111</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>112</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>120</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>131</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>132</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>133</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>134</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>135</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>139</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>141</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>149</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>151</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>152</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>153</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>159</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>211</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>212</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>213</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>221</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>222</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>223</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>224</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>231</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>232</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>233</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>234</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>235</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>236</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>237</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>239</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>241</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>242</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>243</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>244</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>245</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>246</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>247</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>248</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>251</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>252</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>253</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>254</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>259</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>261</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>262</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>271</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>272</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>273</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>274</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>281</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>282</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>283</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>284</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>285</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>286</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>289</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
+        <v>311</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>312</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>313</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>314</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>320</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
+        <v>330</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="7">
+        <v>391</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="7">
+        <v>392</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="7">
+        <v>399</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="7">
+        <v>411</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <v>412</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
+        <v>421</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
+        <v>422</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
+        <v>423</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
+        <v>429</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="7">
+        <v>431</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="7">
+        <v>432</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="7">
+        <v>441</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="7">
+        <v>442</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="7">
+        <v>510</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="7">
+        <v>521</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="7">
+        <v>522</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="7">
+        <v>530</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="7">
+        <v>611</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="7">
+        <v>612</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="7">
+        <v>613</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="7">
+        <v>620</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="7">
+        <v>630</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="7">
+        <v>710</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="7">
+        <v>721</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="7">
+        <v>722</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="7">
+        <v>730</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="7">
+        <v>741</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="7">
+        <v>742</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="7">
+        <v>743</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="7">
+        <v>751</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="7">
+        <v>752</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="7">
+        <v>753</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="7">
+        <v>761</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="7">
+        <v>762</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="7">
+        <v>771</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="7">
+        <v>772</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="7">
+        <v>773</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="7">
+        <v>774</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="7">
+        <v>780</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="7">
+        <v>791</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="7">
+        <v>792</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="7">
+        <v>799</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="7">
+        <v>811</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="7">
+        <v>812</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="7">
+        <v>819</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="7">
+        <v>821</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="7">
+        <v>822</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="7">
+        <v>823</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="7">
+        <v>831</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="7">
+        <v>832</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="7">
+        <v>841</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="7">
+        <v>842</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="7">
+        <v>843</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="7">
+        <v>851</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="7">
+        <v>852</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="7">
+        <v>853</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="7">
+        <v>854</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="7">
+        <v>855</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="7">
+        <v>861</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="7">
+        <v>862</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="7">
+        <v>863</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="7">
+        <v>864</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="7">
+        <v>871</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="7">
+        <v>872</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="7">
+        <v>873</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="7">
+        <v>874</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="7">
+        <v>875</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="7">
+        <v>876</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="7">
+        <v>881</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="7">
+        <v>882</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="7">
+        <v>891</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="7">
+        <v>892</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="7">
+        <v>899</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="7">
+        <v>910</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="7">
+        <v>921</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="7">
+        <v>922</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="7">
+        <v>930</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="7">
+        <v>941</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="7">
+        <v>942</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="7">
+        <v>951</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="7">
+        <v>952</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="7">
+        <v>953</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="7">
+        <v>991</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="7">
+        <v>992</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="7">
+        <v>999</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="7">
+        <v>1011</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="7">
+        <v>1012</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1312,1225 +2536,6 @@
       </c>
       <c r="F8" s="4" t="s">
         <v>190</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B150"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="42.625" style="8" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
-        <v>111</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>112</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>120</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>131</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>132</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>133</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>134</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>135</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>139</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>141</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>149</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>151</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>152</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>153</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>159</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>211</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>212</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>213</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>221</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
-        <v>222</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>223</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <v>224</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <v>231</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
-        <v>232</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
-        <v>233</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
-        <v>234</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
-        <v>235</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
-        <v>236</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
-        <v>237</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
-        <v>239</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
-        <v>241</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
-        <v>242</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
-        <v>243</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="7">
-        <v>244</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
-        <v>245</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
-        <v>246</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
-        <v>247</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
-        <v>248</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
-        <v>251</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="7">
-        <v>252</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="7">
-        <v>253</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
-        <v>254</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
-        <v>259</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
-        <v>261</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
-        <v>262</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
-        <v>271</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
-        <v>272</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
-        <v>273</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
-        <v>274</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="7">
-        <v>281</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="7">
-        <v>282</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="7">
-        <v>283</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="7">
-        <v>284</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="7">
-        <v>285</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="7">
-        <v>286</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="7">
-        <v>289</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="7">
-        <v>311</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="7">
-        <v>312</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="7">
-        <v>313</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="7">
-        <v>314</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="7">
-        <v>320</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="7">
-        <v>330</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="7">
-        <v>391</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="7">
-        <v>392</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="7">
-        <v>399</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="7">
-        <v>411</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="7">
-        <v>412</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="7">
-        <v>421</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="7">
-        <v>422</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="7">
-        <v>423</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="7">
-        <v>429</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="7">
-        <v>431</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="7">
-        <v>432</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="7">
-        <v>441</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="7">
-        <v>442</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="7">
-        <v>510</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="7">
-        <v>521</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="7">
-        <v>522</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="7">
-        <v>530</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="7">
-        <v>611</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="7">
-        <v>612</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="7">
-        <v>613</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="7">
-        <v>620</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="7">
-        <v>630</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="7">
-        <v>710</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="7">
-        <v>721</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="7">
-        <v>722</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="7">
-        <v>730</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="7">
-        <v>741</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="7">
-        <v>742</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="7">
-        <v>743</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="7">
-        <v>751</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="7">
-        <v>752</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="7">
-        <v>753</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="7">
-        <v>761</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="7">
-        <v>762</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="7">
-        <v>771</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="7">
-        <v>772</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="7">
-        <v>773</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="7">
-        <v>774</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="7">
-        <v>780</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="7">
-        <v>791</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="7">
-        <v>792</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="7">
-        <v>799</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="7">
-        <v>811</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="7">
-        <v>812</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="7">
-        <v>819</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="7">
-        <v>821</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="7">
-        <v>822</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="7">
-        <v>823</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="7">
-        <v>831</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="7">
-        <v>832</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="7">
-        <v>841</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="7">
-        <v>842</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="7">
-        <v>843</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="7">
-        <v>851</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="7">
-        <v>852</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="7">
-        <v>853</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="7">
-        <v>854</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="7">
-        <v>855</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="7">
-        <v>861</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="7">
-        <v>862</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="7">
-        <v>863</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="7">
-        <v>864</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="7">
-        <v>871</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="7">
-        <v>872</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="7">
-        <v>873</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="7">
-        <v>874</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="7">
-        <v>875</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="7">
-        <v>876</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="7">
-        <v>881</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="7">
-        <v>882</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="7">
-        <v>891</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="7">
-        <v>892</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="7">
-        <v>899</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="7">
-        <v>910</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="7">
-        <v>921</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="7">
-        <v>922</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="7">
-        <v>930</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="7">
-        <v>941</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="7">
-        <v>942</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="7">
-        <v>951</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="7">
-        <v>952</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="7">
-        <v>953</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="7">
-        <v>991</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="7">
-        <v>992</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="7">
-        <v>999</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="7">
-        <v>1011</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="7">
-        <v>1012</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
